--- a/biology/Botanique/Walter_von_Engelhardt/Walter_von_Engelhardt.xlsx
+++ b/biology/Botanique/Walter_von_Engelhardt/Walter_von_Engelhardt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baron Walter von Engelhardt, né le 1er juillet 1864 à Dorpat (aujourd'hui Tartu en Estonie) dans le gouvernement de Livonie, appartenant à l'Empire russe, et mort le 7 mars 1940 à Dusseldorf en Allemagne, est un architecte paysagiste allemand d'origine germano-balte et ancien sujet russe. C'est le frère de l'architecte Rudolf von Engelhardt (1857-1913).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter von Engelhardt descend d'une ancienne famille de la noblesse germano-balte installée en Courlande et en Livonie depuis des siècles. Son frère Rudolf von Engelhardt (1857-1913), architecte, collabore avec Alvar Aalto. Son père, le baron Moritz von Engelhardt, est professeur de théologie à l'université de Dorpat. 
 Il étudie la botanique entre 1883 et 1887 à l'université germanophone de Dorpat et fait partie de la corporation étudiante Livonia. Grâce à son mémoire sur les cycadophytes, il obtient le grade universitaire de candidat en botanique. Il entre alors comme bibliothécaire au musée botanique de Saint-Pétersbourg, capitale de l'Empire, puis à l'académie impériale des Sciences. Il peut poursuivre des recherches personnelles sous la direction de Karl Ivanovitch Maximovitch.
@@ -547,7 +561,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On peut distinguer parmi ses créations: 
 De nombreux parcs dans les provinces baltes ou en Prusse-Orientale, dont les parcs des châteaux ou villes de : Katzdangen, Groß Roop, Orellen, Koltzen, Hoppenhof, parc du château de Rappin, Ollustfer, le parc du haras de Trakehnen, etc.
@@ -583,7 +599,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Walter von Engelhardt » (voir la liste des auteurs).</t>
         </is>
